--- a/data/trans_dic/Predimed_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/Predimed_R2-Habitat-trans_dic.xlsx
@@ -570,7 +570,7 @@
         <v>0.7791955273177507</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.7818897257559698</v>
+        <v>0.7818897257559697</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.7508357265928377</v>
+        <v>0.7477631273964416</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.7510957614539677</v>
+        <v>0.7512652699956327</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.759664286328232</v>
+        <v>0.7606823559364049</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8179216334498449</v>
+        <v>0.8151704928772615</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8045181566570759</v>
+        <v>0.8035100991973032</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.801489987185603</v>
+        <v>0.801817360324436</v>
       </c>
     </row>
     <row r="7">
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.8434662502411254</v>
+        <v>0.8434662502411256</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.8304830068164679</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8129618056119853</v>
+        <v>0.8136870356094026</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8074203476245811</v>
+        <v>0.8080434463435638</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.818243329819653</v>
+        <v>0.8179347300177956</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8654888242042081</v>
+        <v>0.8675499044353067</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8514473787647844</v>
+        <v>0.8512384094235105</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.853343000095516</v>
+        <v>0.852816434960242</v>
       </c>
     </row>
     <row r="10">
@@ -677,10 +677,10 @@
         <v>0.8257919922072514</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.8194733456053123</v>
+        <v>0.8194733456053124</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.8225724040485293</v>
+        <v>0.8225724040485292</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.793601062217225</v>
+        <v>0.7924380369647174</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7935331742416103</v>
+        <v>0.792722703865631</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7993131151672391</v>
+        <v>0.7986764080805981</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8549379126159932</v>
+        <v>0.8568694465566955</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8435846299522143</v>
+        <v>0.845480455825021</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8431417814591263</v>
+        <v>0.8414476895608424</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.827862683756896</v>
+        <v>0.8278626837568959</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.8066349847350454</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.8165651338927949</v>
+        <v>0.8165651338927951</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8032465430171202</v>
+        <v>0.8024235629164715</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7836166351855416</v>
+        <v>0.7828508133292512</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8002209903175959</v>
+        <v>0.7993443266655368</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8535782130785883</v>
+        <v>0.8535828749202028</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8246053987745821</v>
+        <v>0.8270508677327697</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8342564121259488</v>
+        <v>0.8333916792098599</v>
       </c>
     </row>
     <row r="16">
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.8237950477475849</v>
+        <v>0.8237950477475852</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.8108567051826348</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.8087175592093095</v>
+        <v>0.807156038308494</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.797847908864095</v>
+        <v>0.7983851629440524</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8076219621890268</v>
+        <v>0.807555927287214</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8380181547355652</v>
+        <v>0.8382317545281305</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8217666624163923</v>
+        <v>0.8219756691606278</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8260815349770394</v>
+        <v>0.8259318902956774</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>470030</v>
+        <v>468106</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>508874</v>
+        <v>508989</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>990235</v>
+        <v>991562</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>512026</v>
+        <v>510304</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>545068</v>
+        <v>544385</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>1044756</v>
+        <v>1045183</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>788486</v>
+        <v>789189</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>801932</v>
+        <v>802551</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1606290</v>
+        <v>1605684</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>839432</v>
+        <v>841431</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>845660</v>
+        <v>845453</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>1675194</v>
+        <v>1674161</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>578903</v>
+        <v>578055</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>601366</v>
+        <v>600752</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1188817</v>
+        <v>1187870</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>623646</v>
+        <v>625055</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>639297</v>
+        <v>640734</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1254003</v>
+        <v>1251483</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>764631</v>
+        <v>763848</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>848663</v>
+        <v>847834</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1628397</v>
+        <v>1626613</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>812543</v>
+        <v>812548</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>893054</v>
+        <v>895703</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1697657</v>
+        <v>1695897</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2650403</v>
+        <v>2645285</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2801686</v>
+        <v>2803573</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>5482820</v>
+        <v>5482372</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>2746429</v>
+        <v>2747129</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>2885678</v>
+        <v>2886412</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>5608139</v>
+        <v>5607124</v>
       </c>
     </row>
     <row r="24">
